--- a/biology/Zoologie/Chevreuil/Chevreuil.xlsx
+++ b/biology/Zoologie/Chevreuil/Chevreuil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme « chevreuil » est un nom vernaculaire en français, qui peut désigner plusieurs espèces différentes d'artiodactyles.
-Le genre des chevreuils, selon le sens principal, Capreolus, est désormais subdivisé en deux espèces distinctes[1] :
-le Chevreuil d'Europe ou Chevreuil européen (Capreolus capreolus), vit en Europe et en Asie Mineure[2] ;
-le Chevreuil d'Asie ou chevreuil de Sibérie (Capreolus pygargus), vit de l'est de la Russie d'Europe jusqu'à l'Extrême-Orient[2].
+Le genre des chevreuils, selon le sens principal, Capreolus, est désormais subdivisé en deux espèces distinctes :
+le Chevreuil d'Europe ou Chevreuil européen (Capreolus capreolus), vit en Europe et en Asie Mineure ;
+le Chevreuil d'Asie ou chevreuil de Sibérie (Capreolus pygargus), vit de l'est de la Russie d'Europe jusqu'à l'Extrême-Orient.
 D'autres artiodactyles peuvent être désignés sous le terme de chevreuil :
-le Chevreuil des Andes du Sud ou Huemul (Hippocamelus bisulcus)[3] ;
-le Chevreuil de Virginie ou Cerf de Virginie (Odocoileus virginianus)[2] ;
-l'Antilope-chevreuil ou Péléa (Pelea capreolus)[2].
+le Chevreuil des Andes du Sud ou Huemul (Hippocamelus bisulcus) ;
+le Chevreuil de Virginie ou Cerf de Virginie (Odocoileus virginianus) ;
+l'Antilope-chevreuil ou Péléa (Pelea capreolus).
 			Chevreuil d'Europe (Capreolus capreolus).
 			Chevreuil d'Asie (Capreolus pygargus).
 			Chevreuil des Andes du Sud (Hippocamelus bisulcus).
